--- a/Lista de Tareas.xlsx
+++ b/Lista de Tareas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Parte</t>
   </si>
@@ -115,14 +115,44 @@
     <t xml:space="preserve">interfaz insercion </t>
   </si>
   <si>
-    <t>insertar desde excel</t>
+    <t>Graficos</t>
+  </si>
+  <si>
+    <t>verificacion del rut</t>
+  </si>
+  <si>
+    <t>validaciones</t>
+  </si>
+  <si>
+    <t>uso webcam</t>
+  </si>
+  <si>
+    <t>importar y exportar desde excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentacion final </t>
+  </si>
+  <si>
+    <t>pruebas atrasadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega el avance </t>
+  </si>
+  <si>
+    <t>seg. Nota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 porciento </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +167,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +214,20 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -247,10 +304,277 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -258,42 +582,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,6 +699,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="11880" r="44618" b="9120"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5387340" y="304800"/>
+          <a:ext cx="4884420" cy="3910476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,56 +1040,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1">
         <f>1+C3</f>
         <v>2</v>
@@ -665,57 +1103,57 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C23" si="0">1+C4</f>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:C27" si="0">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -723,27 +1161,27 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -751,27 +1189,27 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -779,27 +1217,27 @@
       <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -807,27 +1245,27 @@
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -835,124 +1273,211 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25"/>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="27"/>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="27"/>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E25" s="29">
+        <v>0</v>
+      </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="42">
+        <v>43535</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="44">
+        <v>43486</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="43"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="28"/>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="9">
-        <f>SUM(E3:E23)</f>
+      <c r="D27" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="H27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="42">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="4">
+        <f>SUM(E3:E27)</f>
         <v>6</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F28" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="11">
-        <f>E24/(MAX(C3:C23))</f>
-        <v>0.2857142857142857</v>
+      <c r="H28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="42">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="6">
+        <f>E28/(MAX(C3:C27))</f>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +1486,11 @@
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lista de Tareas.xlsx
+++ b/Lista de Tareas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\MULTIMEDIA\Repositorios\proyecto-multimedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Parte</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">50 porciento </t>
+  </si>
+  <si>
+    <t>Diagrama de flujo</t>
   </si>
 </sst>
 </file>
@@ -619,33 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,9 +638,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,6 +657,36 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +716,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>138975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9036</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,16 +1043,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O29"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -1063,30 +1066,30 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="9">
@@ -1095,7 +1098,7 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="1">
         <f>1+C3</f>
         <v>2</v>
@@ -1108,13 +1111,13 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
+    <row r="5" spans="2:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37"/>
       <c r="C5" s="12">
-        <f t="shared" ref="C5:C27" si="0">1+C4</f>
+        <f t="shared" ref="C5:C28" si="0">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13">
@@ -1123,7 +1126,7 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8">
@@ -1139,12 +1142,12 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3">
@@ -1153,7 +1156,7 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1167,12 +1170,12 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3">
@@ -1181,7 +1184,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1195,21 +1198,21 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1223,12 +1226,12 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
@@ -1237,7 +1240,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1251,12 +1254,12 @@
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3">
@@ -1265,7 +1268,7 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1279,21 +1282,21 @@
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36"/>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1301,18 +1304,18 @@
       <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="29">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="28" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="13">
@@ -1321,7 +1324,7 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
@@ -1337,12 +1340,12 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="3">
@@ -1351,7 +1354,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1365,12 +1368,12 @@
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="3">
@@ -1379,7 +1382,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1393,91 +1396,111 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30"/>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30"/>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21"/>
       <c r="H26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="32">
         <v>43535</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="34">
         <v>43486</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="43" t="s">
+      <c r="N26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="43"/>
-    </row>
-    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="I27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="H27" s="2" t="s">
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="H28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I28" s="32">
         <v>43528</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="4">
-        <f>SUM(E3:E27)</f>
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="4">
+        <f>SUM(E3:E28)</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I29" s="32">
         <v>43528</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F29" s="6">
-        <f>E28/(MAX(C3:C27))</f>
-        <v>0.24</v>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="6">
+        <f>E29/(MAX(C3:C28))</f>
+        <v>0.30769230769230771</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1510,7 @@
   <mergeCells count="3">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B19"/>
-    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B20:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Lista de Tareas.xlsx
+++ b/Lista de Tareas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21311"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\MULTIMEDIA\Repositorios\proyecto-multimedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C13FE0-5FDE-4D48-B9F4-218A6D527BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Parte</t>
   </si>
@@ -55,19 +56,22 @@
     <t>Proteccion</t>
   </si>
   <si>
-    <t>PHP y HTML RESPONSIVE</t>
-  </si>
-  <si>
-    <t>Interfaz ingreso</t>
-  </si>
-  <si>
-    <t>interfaz estadisticas</t>
-  </si>
-  <si>
-    <t>interfaz permisos</t>
-  </si>
-  <si>
-    <t>interfaz muestra de datos</t>
+    <t>vista</t>
+  </si>
+  <si>
+    <t>vista ingreso alumno</t>
+  </si>
+  <si>
+    <t>vista ingreso profesores</t>
+  </si>
+  <si>
+    <t>vista estadisticas</t>
+  </si>
+  <si>
+    <t>vista permisos</t>
+  </si>
+  <si>
+    <t>vista muestra de datos</t>
   </si>
   <si>
     <t>formulario consultas</t>
@@ -79,6 +83,9 @@
     <t>interfaz PDF</t>
   </si>
   <si>
+    <t xml:space="preserve">interfaz insercion </t>
+  </si>
+  <si>
     <t>interfaz QR</t>
   </si>
   <si>
@@ -88,12 +95,27 @@
     <t>Actualizacion QR</t>
   </si>
   <si>
+    <t>verificacion del rut</t>
+  </si>
+  <si>
+    <t>validaciones</t>
+  </si>
+  <si>
     <t>Actualizacion Informacion</t>
   </si>
   <si>
+    <t>Crop imagen</t>
+  </si>
+  <si>
+    <t>toma foto con webcam</t>
+  </si>
+  <si>
     <t>Funcionalidades extra</t>
   </si>
   <si>
+    <t>crop</t>
+  </si>
+  <si>
     <t>Generar QR</t>
   </si>
   <si>
@@ -103,56 +125,74 @@
     <t>Generar estadisticas</t>
   </si>
   <si>
+    <t>importar y exportar desde excel</t>
+  </si>
+  <si>
+    <t>Graficos</t>
+  </si>
+  <si>
+    <t>uso webcam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega el avance </t>
+  </si>
+  <si>
+    <t>seg. Nota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 porciento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentacion </t>
+  </si>
+  <si>
+    <t>Diagrama de flujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista de tareas </t>
+  </si>
+  <si>
     <t>Escanear Tarjeta</t>
   </si>
   <si>
+    <t xml:space="preserve">presentacion final </t>
+  </si>
+  <si>
+    <t>entrega jueves siguiente</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Crop imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interfaz insercion </t>
-  </si>
-  <si>
-    <t>Graficos</t>
-  </si>
-  <si>
-    <t>verificacion del rut</t>
-  </si>
-  <si>
-    <t>validaciones</t>
-  </si>
-  <si>
-    <t>uso webcam</t>
-  </si>
-  <si>
-    <t>importar y exportar desde excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">examen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">presentacion final </t>
-  </si>
-  <si>
     <t>pruebas atrasadas</t>
   </si>
   <si>
-    <t xml:space="preserve">entrega el avance </t>
-  </si>
-  <si>
-    <t>seg. Nota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 porciento </t>
+    <t>pre avance. MINIMO</t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>control de usuario</t>
+  </si>
+  <si>
+    <t>ingresos de datos alumnos y profesor</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario y consultas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,18 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -566,14 +600,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -582,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,13 +668,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,33 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,28 +705,89 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,20 +809,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9036</xdr:rowOff>
+      <xdr:colOff>224699</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1039,455 +1149,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="84" zoomScaleNormal="84" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="32"/>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="43"/>
       <c r="C4" s="1">
         <f>1+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="34"/>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="12">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="2:7" ht="15">
+      <c r="B5" s="44"/>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C27" si="0">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" ht="15">
+      <c r="B6" s="45"/>
+      <c r="C6" s="51">
+        <f>1+C5</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" ht="15">
+      <c r="B7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" ht="15">
+      <c r="B8" s="46"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" ht="15">
+      <c r="B9" s="46"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="2:7" ht="15">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="2:7" ht="15">
+      <c r="B11" s="46"/>
+      <c r="C11" s="1">
+        <f>1+4</f>
         <v>5</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="1">
+      <c r="D11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" ht="15">
+      <c r="B12" s="46"/>
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="1">
+      <c r="D12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" ht="15">
+      <c r="B13" s="46"/>
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="1">
+      <c r="D13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" ht="15">
+      <c r="B14" s="46"/>
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="1">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" ht="15">
+      <c r="B15" s="46"/>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="1">
+      <c r="D15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" ht="15">
+      <c r="B16" s="46"/>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="1">
+      <c r="D16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:16" ht="15">
+      <c r="B17" s="46"/>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="1">
+      <c r="D17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" ht="15">
+      <c r="B18" s="46"/>
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="1">
+      <c r="D18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:16" ht="15">
+      <c r="B19" s="46"/>
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="1">
+      <c r="D19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:16" ht="15">
+      <c r="B20" s="46"/>
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
+      <c r="D20" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:16" ht="15">
+      <c r="B21" s="47"/>
+      <c r="C21" s="51">
+        <f>1+C20</f>
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
+      <c r="D21" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.45" customHeight="1">
+      <c r="B22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:16" ht="14.45" customHeight="1">
+      <c r="B23" s="46"/>
+      <c r="C23" s="1">
+        <f>1+C21</f>
         <v>16</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
-      <c r="C19" s="1">
+      <c r="D23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="46"/>
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="D24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="46"/>
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="1">
+      <c r="D25" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="46"/>
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="1">
+      <c r="D26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="46"/>
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="46"/>
+      <c r="C28" s="1">
+        <f>1+C27</f>
+        <v>21</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="I28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="26">
+        <v>43535</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="28">
+        <v>43486</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="46"/>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:C31" si="1">1+C28</f>
+        <v>22</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="J29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="46"/>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="E22" s="3">
+      <c r="D30" s="49"/>
+      <c r="E30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="J30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="2:16" ht="15" thickBot="1">
+      <c r="B31" s="47"/>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="H26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="42">
-        <v>43535</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="44">
-        <v>43486</v>
-      </c>
-      <c r="M26" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="43"/>
-    </row>
-    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="H27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="42">
+      <c r="G31" s="17"/>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="26">
         <v>43528</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="4">
-        <f>SUM(E3:E27)</f>
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="42">
+      <c r="L31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="F32" s="4">
+        <f>SUM(F3:F31)</f>
+        <v>8</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="26">
         <v>43528</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F29" s="6">
-        <f>E28/(MAX(C3:C27))</f>
-        <v>0.24</v>
+    <row r="33" spans="5:7">
+      <c r="G33" s="5">
+        <f>F32/(MAX(C3:C31))</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B6:B16">
     <sortCondition ref="B6:B16"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B6:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Lista de Tareas.xlsx
+++ b/Lista de Tareas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Parte</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Proteccion</t>
   </si>
   <si>
-    <t>PHP y HTML RESPONSIVE</t>
-  </si>
-  <si>
-    <t>Interfaz ingreso</t>
-  </si>
-  <si>
     <t>interfaz estadisticas</t>
   </si>
   <si>
@@ -149,6 +143,21 @@
   </si>
   <si>
     <t>Diagrama de flujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interfaces </t>
+  </si>
+  <si>
+    <t>Interfaz ingreso alumno</t>
+  </si>
+  <si>
+    <t>Interfaz ingreso profesores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista de tareas </t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,18 +228,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -581,11 +584,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,9 +613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,19 +650,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -666,9 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
@@ -686,6 +682,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,16 +746,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138975</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>136036</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138974</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1043,474 +1081,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O30"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="27.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="42"/>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
       <c r="C4" s="1">
         <f>1+C3</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="44"/>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="12">
-        <f t="shared" ref="C5:C28" si="0">1+C4</f>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32"/>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:C26" si="0">1+C4</f>
         <v>3</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="33"/>
+      <c r="C6" s="50">
+        <f>1+C5</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="1">
+        <f>1+4</f>
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="1">
+      <c r="D11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="1">
+      <c r="D12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="1">
+      <c r="D13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D14" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="1">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="1">
+      <c r="E15" s="44"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="1">
+      <c r="E16" s="44"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="1">
+      <c r="D17" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="1">
+      <c r="D18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="34"/>
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="1">
+      <c r="D19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="35"/>
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D20" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="1">
+      <c r="D21" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="37"/>
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
-      <c r="C19" s="1">
+      <c r="D22" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="37"/>
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
+      <c r="D23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="E23" s="44"/>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="37"/>
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="1">
+      <c r="D24" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="37"/>
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="1">
+      <c r="D25" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="37"/>
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D26" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="1">
+        <f>1+C26</f>
+        <v>21</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="27">
+        <v>43535</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="29">
+        <v>43486</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="28"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="37"/>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="J28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="37"/>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="J29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+    </row>
+    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="38"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="I30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="27">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <f>SUM(F3:F30)</f>
+        <v>7</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="H26" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="32">
-        <v>43535</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="34">
-        <v>43486</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="I27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="H28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="32">
+      <c r="J31" s="27">
         <v>43528</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E29" s="4">
-        <f>SUM(E3:E28)</f>
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="32">
-        <v>43528</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F30" s="6">
-        <f>E29/(MAX(C3:C28))</f>
-        <v>0.30769230769230771</v>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G32" s="6">
+        <f>F31/(MAX(C3:C30))</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B6:B16">
     <sortCondition ref="B6:B16"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
